--- a/Glosario_DMCS.xlsx
+++ b/Glosario_DMCS.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paula\Desktop\SUD AUSTRAL\Delitos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paula\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-DELITO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4665BD1A-2D73-4142-A328-774443BC7A6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205DD2A9-55F0-4E7E-8F27-5E6C566ADC07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{140E024F-B38A-4ED5-91EA-F60F82F75B7E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Glosario" sheetId="1" r:id="rId1"/>
-    <sheet name="DMCS diagrama" sheetId="2" r:id="rId2"/>
+    <sheet name="Glosario" sheetId="3" r:id="rId1"/>
+    <sheet name="Conceptos" sheetId="1" r:id="rId2"/>
+    <sheet name="DMCS diagrama" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="102">
   <si>
     <t>Concepto</t>
   </si>
@@ -311,6 +312,27 @@
   </si>
   <si>
     <t>Contempla tres tipos de delito: a) Respecto de un menor de siete años, abandonarlo en un lugar no solitario, b) Respecto de un menor de diez años, abandonarlo en un lugar solitario, c) Respecto a las personas desvalidas, el delito se configura por el abandono del cónyuge o de un ascendiente o descendente, legítimo o ilegítimo, enfermo imposibilitado, de lo cual resulten lesiones graves o muertes.</t>
+  </si>
+  <si>
+    <t>Categoría</t>
+  </si>
+  <si>
+    <t>Delitos de Mayor Connotación Social (DMCS)</t>
+  </si>
+  <si>
+    <t>Tasa cada 100 mil habitantes</t>
+  </si>
+  <si>
+    <t>Delitos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corresponde a una clasificación estadística policial de las materias penales o tipos de delitos considerados como delitos de mayor connotación social, la que está compuesta por los siguientes grupos: delitos violentos (robo con violencia, robo con intimidación, robo por sorpresa, lesiones, homicidio y violación), y delitos contra la propiedad (robo de vehículo motorizado, robo de accesorios de vehículos, robo en lugar habitado, robo en lugar no habitado, otros robos con fuerza y hurto). Los delitos de lesiones, homicidios, violación, otros robos con fuerza y hurtos, son delitos agrupados. </t>
+  </si>
+  <si>
+    <t>Conjunto de delitos cometidos por quienes atentan contra la salud e integridad física de las personas, provocando daño o un detrimento corporal.</t>
+  </si>
+  <si>
+    <t>Mediciones</t>
   </si>
 </sst>
 </file>
@@ -464,7 +486,39 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -475,6 +529,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF220123-888F-40A4-A149-C5233439431F}" name="Glosario_DMCS" displayName="Glosario_DMCS" ref="A1:C15" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2">
+  <autoFilter ref="A1:C15" xr:uid="{597A377B-450B-4336-BB99-1BB3D4307E48}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3A48A89E-8169-4D5D-BA93-32E44621D4E3}" name="Categoría" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{DEE121F4-7201-4F20-9F47-1D3F1488D861}" name="Concepto" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{806AA4A5-C0CA-4057-95BD-E024AB427936}" name="Definición" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -773,17 +839,225 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4B384E-F005-4C61-BB6C-78CEF25E0731}">
-  <dimension ref="A1:C38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811FB7F1-83F3-480E-AEAA-03CF8CE3147C}">
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="2" width="90" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="3" max="3" width="95.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4B384E-F005-4C61-BB6C-78CEF25E0731}">
+  <dimension ref="A1:C38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="60" customWidth="1"/>
+    <col min="2" max="2" width="105.7109375" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1203,7 +1477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E81A944-4C0E-4F08-933C-09A1F16FC676}">
   <dimension ref="A1:E21"/>
   <sheetViews>
